--- a/dados/horarios_2022_1.xlsx
+++ b/dados/horarios_2022_1.xlsx
@@ -61,7 +61,7 @@
         <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>codigo</text:p>
+            <text:p>cod</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>nome_ccr</text:p>
@@ -3861,26 +3861,6 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA372</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>MORFOSSINTAXE DA LÍNGUA ESPANHOLA</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="60" calcext:value-type="float">
-            <text:p>60</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
-            <text:p>5</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>4N1234 (04/05/2022 - 17/08/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>GLA486</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -4037,26 +4017,6 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>6N1234 (06/05/2022 - 02/09/2022)</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>GLA056</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ESTÁGIO CURRICULAR SUPERVISIONADO EM LÍNGUA PORTUGUESA II</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
-            <text:p>30</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>LETRAS</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>2N1234 (02/05/2022 - 16/05/2022), 2N1234 (22/08/2022 - 29/08/2022)</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -9610,10 +9570,10 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <dc:date>2023-11-24T23:12:55.614540021</dc:date>
-    <meta:editing-duration>PT3M14S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="2862" meta:object-count="0"/>
+    <dc:date>2023-11-25T00:02:54.403996027</dc:date>
+    <meta:editing-duration>PT44M59S</meta:editing-duration>
+    <meta:editing-cycles>5</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="2850" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -9625,14 +9585,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">91665</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">215392</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">214488</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="_IMPORTANTE_NOTE_QUE_HÁ_2_LINHAS_QUE_RESTRINGEM_OS_RESULTADOS_A__202311221412">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">457</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">204</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -9641,7 +9601,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">444</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">166</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -9687,7 +9647,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNABEdXBsZXg6Tm9uZQAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -9840,9 +9800,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2023-11-24">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2023-11-25">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="23:21:14.523864758">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
